--- a/committeFormes/Miza-Monthly/Co_py/Iscour_Report.xlsx
+++ b/committeFormes/Miza-Monthly/Co_py/Iscour_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COMMITTEE FORMES\Miza-Monthly\Co_py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farshout\committeFormes\Miza-Monthly\Co_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">حافظة  محررة للعملاء طبقاً لموافقة لجنة الائتمان والتمويل المتناهى الصغر  </t>
   </si>
   <si>
-    <t>مكتب التمويل متناهى الصغر بنجع حمادى</t>
-  </si>
-  <si>
     <t>الضامن الاول</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">حافظة  محررة للضامنين طبقاً لموافقة لجنة الائتمان والتمويل المتناهى الصغر </t>
+  </si>
+  <si>
+    <t>مكتب التمويل متناهى الصغر بفرشوط</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1925,7 @@
   <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -5278,7 +5278,7 @@
   <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -8556,7 +8556,7 @@
   <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -8614,7 +8614,7 @@
     </row>
     <row r="5" spans="1:9" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -8634,13 +8634,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>4</v>
